--- a/Excel/Model.xlsx
+++ b/Excel/Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Web projects\2021\QMarkets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C133FA29-23B2-46DA-879D-29AA9D97A64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A3ABE7-876C-4DE5-A57E-FCD595D07859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="2" activeTab="6" xr2:uid="{B4730EF8-85ED-40D6-BAC0-2B9AAD5B7E15}"/>
   </bookViews>
@@ -1339,13 +1339,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1611C6BD-F29B-47EF-867D-487EDE55EAFB}" name="playground_demo_users4" displayName="playground_demo_users4" ref="G1:I101" totalsRowShown="0">
   <autoFilter ref="G1:I101" xr:uid="{1611C6BD-F29B-47EF-867D-487EDE55EAFB}"/>
   <tableColumns count="3">
-    <tableColumn id="4" xr3:uid="{76BD8EA3-B6E2-4D78-818F-314C5A8D1575}" name="User Full Name" dataDxfId="18">
+    <tableColumn id="4" xr3:uid="{76BD8EA3-B6E2-4D78-818F-314C5A8D1575}" name="User Full Name" dataDxfId="23">
       <calculatedColumnFormula>IF(B2=3,D2,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{68F75C80-5DDA-4E78-9B2D-7B7820322774}" name="Region" dataDxfId="19">
+    <tableColumn id="5" xr3:uid="{68F75C80-5DDA-4E78-9B2D-7B7820322774}" name="Region" dataDxfId="22">
       <calculatedColumnFormula>IF(B2=4,D2,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{51968253-D87B-4C26-9772-89463A6D4823}" name="Department" dataDxfId="20">
+    <tableColumn id="6" xr3:uid="{51968253-D87B-4C26-9772-89463A6D4823}" name="Department" dataDxfId="21">
       <calculatedColumnFormula>IF(B2=5,D2,"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1360,11 +1360,11 @@
     <tableColumn id="1" xr3:uid="{98AABC44-FA5A-4B6E-913F-E8BEBA7F20E0}" uniqueName="1" name="id" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{E3CB49FE-CB5C-47C3-9660-E05B5FE98815}" uniqueName="2" name="fid" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{ABB5270F-D33F-4326-BCC7-82F149F598A2}" uniqueName="3" name="uid" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{EADCC227-927E-4950-9EBE-46B547BBB040}" uniqueName="4" name="value" queryTableFieldId="4" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{272E3177-383E-4CAC-BBF8-9B40AD5C5AB8}" uniqueName="6" name="Username" queryTableFieldId="5" dataDxfId="22">
+    <tableColumn id="4" xr3:uid="{EADCC227-927E-4950-9EBE-46B547BBB040}" uniqueName="4" name="value" queryTableFieldId="4" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{272E3177-383E-4CAC-BBF8-9B40AD5C5AB8}" uniqueName="6" name="Username" queryTableFieldId="5" dataDxfId="19">
       <calculatedColumnFormula>VLOOKUP(playground_demo_profile_values5[[#This Row],[uid]],playground_demo_users!$A$1:$C$241,2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{B9361123-593E-473C-99A2-11846512F864}" uniqueName="7" name="mail" queryTableFieldId="6" dataDxfId="21">
+    <tableColumn id="7" xr3:uid="{B9361123-593E-473C-99A2-11846512F864}" uniqueName="7" name="mail" queryTableFieldId="6" dataDxfId="18">
       <calculatedColumnFormula>VLOOKUP(playground_demo_profile_values5[[#This Row],[uid]],playground_demo_users!$A$1:$C$241,3,FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1416,13 +1416,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{3C42D5AD-FC9D-4546-ACAD-02D3E7A0FB55}" name="playground_demo_users4911" displayName="playground_demo_users4911" ref="G1:I101" totalsRowShown="0">
   <autoFilter ref="G1:I101" xr:uid="{1611C6BD-F29B-47EF-867D-487EDE55EAFB}"/>
   <tableColumns count="3">
-    <tableColumn id="4" xr3:uid="{F02647AB-E302-459A-8418-F1C2A54AA5C2}" name="User Full Name" dataDxfId="8">
+    <tableColumn id="4" xr3:uid="{F02647AB-E302-459A-8418-F1C2A54AA5C2}" name="User Full Name" dataDxfId="11">
       <calculatedColumnFormula>VLOOKUP(playground_demo_profile_values51012[[#This Row],[uid]],AllDataSortedByFid!$C$2:$G$101,5,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{259B4C1A-D27A-4478-9BBD-0282FB015396}" name="Region" dataDxfId="7">
+    <tableColumn id="5" xr3:uid="{259B4C1A-D27A-4478-9BBD-0282FB015396}" name="Region" dataDxfId="10">
       <calculatedColumnFormula>VLOOKUP(playground_demo_profile_values51012[[#This Row],[uid]],AllDataSortedByFid!C102:H201,6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{15D02674-774D-4EAC-BB2D-265FF597A3DB}" name="Department" dataDxfId="6">
+    <tableColumn id="6" xr3:uid="{15D02674-774D-4EAC-BB2D-265FF597A3DB}" name="Department" dataDxfId="9">
       <calculatedColumnFormula>VLOOKUP(playground_demo_profile_values51012[[#This Row],[uid]],AllDataSortedByFid!C202:I301,7,FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1440,11 +1440,11 @@
     <tableColumn id="1" xr3:uid="{1EEF9AE1-5D5B-42C8-B1BF-F314C483EEEE}" uniqueName="1" name="id" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{F1E6B23B-7966-405E-A48D-2CC6D63FAFDC}" uniqueName="2" name="fid" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{727338F5-50DE-4A9A-AF02-B7FE7AF73B7F}" uniqueName="3" name="uid" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{E9D7782B-D8F9-4C78-BA11-E633332DC660}" uniqueName="4" name="value" queryTableFieldId="4" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{3D7E1E50-B307-4D2C-ADA9-6269FCB2108D}" uniqueName="6" name="Username" queryTableFieldId="5" dataDxfId="10">
+    <tableColumn id="4" xr3:uid="{E9D7782B-D8F9-4C78-BA11-E633332DC660}" uniqueName="4" name="value" queryTableFieldId="4" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{3D7E1E50-B307-4D2C-ADA9-6269FCB2108D}" uniqueName="6" name="Username" queryTableFieldId="5" dataDxfId="7">
       <calculatedColumnFormula>VLOOKUP(playground_demo_profile_values51012[[#This Row],[uid]],playground_demo_users!$A$1:$C$241,2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{A5452090-F48C-433A-B5FC-D8E9CC58530F}" uniqueName="7" name="mail" queryTableFieldId="6" dataDxfId="9">
+    <tableColumn id="7" xr3:uid="{A5452090-F48C-433A-B5FC-D8E9CC58530F}" uniqueName="7" name="mail" queryTableFieldId="6" dataDxfId="6">
       <calculatedColumnFormula>VLOOKUP(playground_demo_profile_values51012[[#This Row],[uid]],playground_demo_users!$A$1:$C$241,3,FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -35969,8 +35969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A0CDD6-E64B-4785-AAF8-F836A00B27F0}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36034,8 +36034,8 @@
         <v>208</v>
       </c>
       <c r="I2" t="str">
-        <f t="shared" ref="I2:I65" si="0">_xlfn.CONCAT("&lt;li&gt;",C2," | ",D2," | ",E2," | ",F2," | ",G2,"&lt;/li&gt;")</f>
-        <v>&lt;li&gt;additi_nte_mite | geoge.schmtt@lala.com | George Schmitt | Chaoburg | Bilba Gardner&lt;/li&gt;</v>
+        <f>_xlfn.CONCAT("'",C2," | ",D2," | ",E2," | ",F2," | ",G2,"'",",")</f>
+        <v>'additi_nte_mite | geoge.schmtt@lala.com | George Schmitt | Chaoburg | Bilba Gardner',</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -36061,8 +36061,8 @@
         <v>208</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;mouth_dbai_y | kagan.fredman@lala.com | Keagan Friedman | Uglax | Bilba Gardner&lt;/li&gt;</v>
+        <f t="shared" ref="I3:I66" si="0">_xlfn.CONCAT("'",C3," | ",D3," | ",E3," | ",F3," | ",G3,"'",",")</f>
+        <v>'mouth_dbai_y | kagan.fredman@lala.com | Keagan Friedman | Uglax | Bilba Gardner',</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -36089,7 +36089,7 @@
       </c>
       <c r="I4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;chad_andf_awed | ampbell.oover@lala.com | Campbell Hoover | Etrana | Bilba Gardner&lt;/li&gt;</v>
+        <v>'chad_andf_awed | ampbell.oover@lala.com | Campbell Hoover | Etrana | Bilba Gardner',</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -36116,7 +36116,7 @@
       </c>
       <c r="I5" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;litera_ybu_pkin | desiny.beasey@lala.com | Destiny Beasley | Chaoburg | Bilba Gardner&lt;/li&gt;</v>
+        <v>'litera_ybu_pkin | desiny.beasey@lala.com | Destiny Beasley | Chaoburg | Bilba Gardner',</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -36143,7 +36143,7 @@
       </c>
       <c r="I6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;slime_urde_ | nya.glss@lala.com | Nyla Glass | Friatho | Bilba Gardner&lt;/li&gt;</v>
+        <v>'slime_urde_ | nya.glss@lala.com | Nyla Glass | Friatho | Bilba Gardner',</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -36170,7 +36170,7 @@
       </c>
       <c r="I7" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;eaterm_n_led | wyne.croby@lala.com | Wayne Crosby | Friatho | Bilba Gardner&lt;/li&gt;</v>
+        <v>'eaterm_n_led | wyne.croby@lala.com | Wayne Crosby | Friatho | Bilba Gardner',</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -36197,7 +36197,7 @@
       </c>
       <c r="I8" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;bearu_de_stand | marsall.tomas@lala.com | Marshall Thomas | Etrana | Bilba Gardner&lt;/li&gt;</v>
+        <v>'bearu_de_stand | marsall.tomas@lala.com | Marshall Thomas | Etrana | Bilba Gardner',</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -36224,7 +36224,7 @@
       </c>
       <c r="I9" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;welsh_es_ | charee.nortn@lala.com | Charlee Norton | Chaoburg | Bilba Gardner&lt;/li&gt;</v>
+        <v>'welsh_es_ | charee.nortn@lala.com | Charlee Norton | Chaoburg | Bilba Gardner',</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -36251,7 +36251,7 @@
       </c>
       <c r="I10" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;whimp_ew_terski | teve.hwe@lala.com | Steve Howe | Uglax | Bilba Gardner&lt;/li&gt;</v>
+        <v>'whimp_ew_terski | teve.hwe@lala.com | Steve Howe | Uglax | Bilba Gardner',</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -36278,7 +36278,7 @@
       </c>
       <c r="I11" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;tickto_k_quate | inn.wber@lala.com | Finn Weber | Hoshor | Bilba Gardner&lt;/li&gt;</v>
+        <v>'tickto_k_quate | inn.wber@lala.com | Finn Weber | Hoshor | Bilba Gardner',</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -36305,7 +36305,7 @@
       </c>
       <c r="I12" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;punis_men_bangbang | fancisco.hueta@lala.com | Francisco Huerta | Bepriedan | Bilba Gardner&lt;/li&gt;</v>
+        <v>'punis_men_bangbang | fancisco.hueta@lala.com | Francisco Huerta | Bepriedan | Bilba Gardner',</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -36332,7 +36332,7 @@
       </c>
       <c r="I13" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;dumba_sfe_ret | izayh.meltn@lala.com | Izayah Melton | Chaoburg | Bilba Gardner&lt;/li&gt;</v>
+        <v>'dumba_sfe_ret | izayh.meltn@lala.com | Izayah Melton | Chaoburg | Bilba Gardner',</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -36359,7 +36359,7 @@
       </c>
       <c r="I14" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;illfat_dai_ | adrina.vilegas@lala.com | Adriana Villegas | Chaoburg | Bilba Gardner&lt;/li&gt;</v>
+        <v>'illfat_dai_ | adrina.vilegas@lala.com | Adriana Villegas | Chaoburg | Bilba Gardner',</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -36386,7 +36386,7 @@
       </c>
       <c r="I15" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;feel_ngpop_ | lgan.kid@lala.com | Logan Kidd | Hoshor | Bilba Gardner&lt;/li&gt;</v>
+        <v>'feel_ngpop_ | lgan.kid@lala.com | Logan Kidd | Hoshor | Bilba Gardner',</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -36413,7 +36413,7 @@
       </c>
       <c r="I16" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;wors_edun_ol | joelyn.hobs@lala.com | Joselyn Hobbs | Etrana | Bilba Gardner&lt;/li&gt;</v>
+        <v>'wors_edun_ol | joelyn.hobs@lala.com | Joselyn Hobbs | Etrana | Bilba Gardner',</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -36440,7 +36440,7 @@
       </c>
       <c r="I17" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;spust_ard_ | omr.specer@lala.com | Omar Spencer | Etrana | Bilba Gardner&lt;/li&gt;</v>
+        <v>'spust_ard_ | omr.specer@lala.com | Omar Spencer | Etrana | Bilba Gardner',</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -36467,7 +36467,7 @@
       </c>
       <c r="I18" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;fencer_or_ie | byce.bady@lala.com | Bryce Brady | Friatho | Bilba Gardner&lt;/li&gt;</v>
+        <v>'fencer_or_ie | byce.bady@lala.com | Bryce Brady | Friatho | Bilba Gardner',</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -36494,7 +36494,7 @@
       </c>
       <c r="I19" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;scutt_esbo_fin | ev.blac@lala.com | Eva Black | Uglax | Bilba Gardner&lt;/li&gt;</v>
+        <v>'scutt_esbo_fin | ev.blac@lala.com | Eva Black | Uglax | Bilba Gardner',</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -36521,7 +36521,7 @@
       </c>
       <c r="I20" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;trysai_dr_ss | kllen.hiks@lala.com | Kellen Hicks | Uglax | Bilba Gardner&lt;/li&gt;</v>
+        <v>'trysai_dr_ss | kllen.hiks@lala.com | Kellen Hicks | Uglax | Bilba Gardner',</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -36548,7 +36548,7 @@
       </c>
       <c r="I21" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;genoa_ubt_e | rut.livigston@lala.com | Ruth Livingston | Bepriedan | Bilba Gardner&lt;/li&gt;</v>
+        <v>'genoa_ubt_e | rut.livigston@lala.com | Ruth Livingston | Bepriedan | Bilba Gardner',</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -36575,7 +36575,7 @@
       </c>
       <c r="I22" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;wurfi_gd_bersome | alfnso.hoffan@lala.com | Alfonso Hoffman | Hoshor | Fridugis Riverhopper&lt;/li&gt;</v>
+        <v>'wurfi_gd_bersome | alfnso.hoffan@lala.com | Alfonso Hoffman | Hoshor | Fridugis Riverhopper',</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -36602,7 +36602,7 @@
       </c>
       <c r="I23" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;mostaf_g_wing | quinon.sevenson@lala.com | Quinton Stevenson | Bepriedan | Fridugis Riverhopper&lt;/li&gt;</v>
+        <v>'mostaf_g_wing | quinon.sevenson@lala.com | Quinton Stevenson | Bepriedan | Fridugis Riverhopper',</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -36629,7 +36629,7 @@
       </c>
       <c r="I24" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;earsu_vive_ | ryle.noran@lala.com | Rylee Norman | Friatho | Fridugis Riverhopper&lt;/li&gt;</v>
+        <v>'earsu_vive_ | ryle.noran@lala.com | Rylee Norman | Friatho | Fridugis Riverhopper',</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -36656,7 +36656,7 @@
       </c>
       <c r="I25" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;underg_ant_ology | noa.gibs@lala.com | Nola Gibbs | Chaoburg | Fridugis Riverhopper&lt;/li&gt;</v>
+        <v>'underg_ant_ology | noa.gibs@lala.com | Nola Gibbs | Chaoburg | Fridugis Riverhopper',</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -36683,7 +36683,7 @@
       </c>
       <c r="I26" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;laug_check_ | lra.tat@lala.com | Lara Tate | Uglax | Fridugis Riverhopper&lt;/li&gt;</v>
+        <v>'laug_check_ | lra.tat@lala.com | Lara Tate | Uglax | Fridugis Riverhopper',</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -36710,7 +36710,7 @@
       </c>
       <c r="I27" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;harpye_s_ern | rodlfo.odd@lala.com | Rodolfo Todd | Friatho | Fridugis Riverhopper&lt;/li&gt;</v>
+        <v>'harpye_s_ern | rodlfo.odd@lala.com | Rodolfo Todd | Friatho | Fridugis Riverhopper',</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -36737,7 +36737,7 @@
       </c>
       <c r="I28" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;blut_ingf_resail | briger.cllahan@lala.com | Bridger Callahan | Bepriedan | Fridugis Riverhopper&lt;/li&gt;</v>
+        <v>'blut_ingf_resail | briger.cllahan@lala.com | Bridger Callahan | Bepriedan | Fridugis Riverhopper',</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -36764,7 +36764,7 @@
       </c>
       <c r="I29" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;exxo_catni_ | mari.sauners@lala.com | Amari Saunders | Friatho | Fridugis Riverhopper&lt;/li&gt;</v>
+        <v>'exxo_catni_ | mari.sauners@lala.com | Amari Saunders | Friatho | Fridugis Riverhopper',</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -36791,7 +36791,7 @@
       </c>
       <c r="I30" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;golfer_rim_ry | matha.inton@lala.com | Martha Hinton | Etrana | Fridugis Riverhopper&lt;/li&gt;</v>
+        <v>'golfer_rim_ry | matha.inton@lala.com | Martha Hinton | Etrana | Fridugis Riverhopper',</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -36818,7 +36818,7 @@
       </c>
       <c r="I31" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;famil_ar_agwitch | damrion.hortn@lala.com | Damarion Horton | Etrana | Fridugis Riverhopper&lt;/li&gt;</v>
+        <v>'famil_ar_agwitch | damrion.hortn@lala.com | Damarion Horton | Etrana | Fridugis Riverhopper',</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -36845,7 +36845,7 @@
       </c>
       <c r="I32" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;wink_karka_off | tystan.chapan@lala.com | Trystan Chapman | Hoshor | Fridugis Riverhopper&lt;/li&gt;</v>
+        <v>'wink_karka_off | tystan.chapan@lala.com | Trystan Chapman | Hoshor | Fridugis Riverhopper',</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -36872,7 +36872,7 @@
       </c>
       <c r="I33" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;pettyb_bl_ | precous.mcann@lala.com | Precious Mccann | Hoshor | Fridugis Riverhopper&lt;/li&gt;</v>
+        <v>'pettyb_bl_ | precous.mcann@lala.com | Precious Mccann | Hoshor | Fridugis Riverhopper',</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -36899,7 +36899,7 @@
       </c>
       <c r="I34" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;waywa_ds_ene | rena.has@lala.com | Reyna Hays | Chaoburg | Fridugis Riverhopper&lt;/li&gt;</v>
+        <v>'waywa_ds_ene | rena.has@lala.com | Reyna Hays | Chaoburg | Fridugis Riverhopper',</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -36926,7 +36926,7 @@
       </c>
       <c r="I35" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;conf_und_dgrod | mar.haw@lala.com | Mark Shaw | Friatho | Fridugis Riverhopper&lt;/li&gt;</v>
+        <v>'conf_und_dgrod | mar.haw@lala.com | Mark Shaw | Friatho | Fridugis Riverhopper',</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -36953,7 +36953,7 @@
       </c>
       <c r="I36" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;billi_kinb_lted | misel.padlla@lala.com | Misael Padilla | Friatho | Fridugis Riverhopper&lt;/li&gt;</v>
+        <v>'billi_kinb_lted | misel.padlla@lala.com | Misael Padilla | Friatho | Fridugis Riverhopper',</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -36980,7 +36980,7 @@
       </c>
       <c r="I37" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;rowin_sno_ble | ayvon.iddleton@lala.com | Jayvon Middleton | Bepriedan | Fridugis Riverhopper&lt;/li&gt;</v>
+        <v>'rowin_sno_ble | ayvon.iddleton@lala.com | Jayvon Middleton | Bepriedan | Fridugis Riverhopper',</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -37007,7 +37007,7 @@
       </c>
       <c r="I38" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;resi_tan_eprime | emeron.roma@lala.com | Emerson Roman | Etrana | Fridugis Riverhopper&lt;/li&gt;</v>
+        <v>'resi_tan_eprime | emeron.roma@lala.com | Emerson Roman | Etrana | Fridugis Riverhopper',</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -37034,7 +37034,7 @@
       </c>
       <c r="I39" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;inse_tbrag_art | shyan.imenez@lala.com | Shyann Jimenez | Etrana | Fridugis Riverhopper&lt;/li&gt;</v>
+        <v>'inse_tbrag_art | shyan.imenez@lala.com | Shyann Jimenez | Etrana | Fridugis Riverhopper',</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -37061,7 +37061,7 @@
       </c>
       <c r="I40" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;came_ircu_ar | byro.erritt@lala.com | Byron Merritt | Chaoburg | Fridugis Riverhopper&lt;/li&gt;</v>
+        <v>'came_ircu_ar | byro.erritt@lala.com | Byron Merritt | Chaoburg | Fridugis Riverhopper',</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -37088,7 +37088,7 @@
       </c>
       <c r="I41" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;gentl_rosy_ | payon.buer@lala.com | Payton Bauer | Chaoburg | Fridugis Riverhopper&lt;/li&gt;</v>
+        <v>'gentl_rosy_ | payon.buer@lala.com | Payton Bauer | Chaoburg | Fridugis Riverhopper',</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -37115,7 +37115,7 @@
       </c>
       <c r="I42" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;neck_iesn_ctor | jayee.sephenson@lala.com | Jaylee Stephenson | Friatho | Fridugis Riverhopper&lt;/li&gt;</v>
+        <v>'neck_iesn_ctor | jayee.sephenson@lala.com | Jaylee Stephenson | Friatho | Fridugis Riverhopper',</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -37142,7 +37142,7 @@
       </c>
       <c r="I43" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;prick_yba_hroom | jaspr.moraes@lala.com | Jasper Morales | Chaoburg | Fridugis Riverhopper&lt;/li&gt;</v>
+        <v>'prick_yba_hroom | jaspr.moraes@lala.com | Jasper Morales | Chaoburg | Fridugis Riverhopper',</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -37169,7 +37169,7 @@
       </c>
       <c r="I44" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;icesk_tes_eaky | haley.arold@lala.com | Hadley Arnold | Chaoburg | Fridugis Riverhopper&lt;/li&gt;</v>
+        <v>'icesk_tes_eaky | haley.arold@lala.com | Hadley Arnold | Chaoburg | Fridugis Riverhopper',</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -37196,7 +37196,7 @@
       </c>
       <c r="I45" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;vein_evela_ion | arlie.powrs@lala.com | Marlie Powers | Etrana | Fridugis Riverhopper&lt;/li&gt;</v>
+        <v>'vein_evela_ion | arlie.powrs@lala.com | Marlie Powers | Etrana | Fridugis Riverhopper',</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -37223,7 +37223,7 @@
       </c>
       <c r="I46" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;capo_maple_ | halie.shafer@lala.com | Hallie Shaffer | Uglax | Fridugis Riverhopper&lt;/li&gt;</v>
+        <v>'capo_maple_ | halie.shafer@lala.com | Hallie Shaffer | Uglax | Fridugis Riverhopper',</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -37250,7 +37250,7 @@
       </c>
       <c r="I47" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;flird_sp_rse | aola.bater@lala.com | Paola Baxter | Friatho | Fridugis Riverhopper&lt;/li&gt;</v>
+        <v>'flird_sp_rse | aola.bater@lala.com | Paola Baxter | Friatho | Fridugis Riverhopper',</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -37277,7 +37277,7 @@
       </c>
       <c r="I48" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;boff_lau_ilized | dwin.pau@lala.com | Edwin Paul | Bepriedan | Fridugis Riverhopper&lt;/li&gt;</v>
+        <v>'boff_lau_ilized | dwin.pau@lala.com | Edwin Paul | Bepriedan | Fridugis Riverhopper',</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -37304,7 +37304,7 @@
       </c>
       <c r="I49" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;care_rbri_f | cob.gimes@lala.com | Coby Grimes | Uglax | Lo Rumble&lt;/li&gt;</v>
+        <v>'care_rbri_f | cob.gimes@lala.com | Coby Grimes | Uglax | Lo Rumble',</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -37331,7 +37331,7 @@
       </c>
       <c r="I50" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;pearlb_t_on | alerie.vaquez@lala.com | Valerie Vazquez | Etrana | Lo Rumble&lt;/li&gt;</v>
+        <v>'pearlb_t_on | alerie.vaquez@lala.com | Valerie Vazquez | Etrana | Lo Rumble',</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -37358,7 +37358,7 @@
       </c>
       <c r="I51" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;brough_n_pcheese | arya.ncholson@lala.com | Aryan Nicholson | Friatho | Lo Rumble&lt;/li&gt;</v>
+        <v>'brough_n_pcheese | arya.ncholson@lala.com | Aryan Nicholson | Friatho | Lo Rumble',</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -37385,7 +37385,7 @@
       </c>
       <c r="I52" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;hassa_oi_ | kaiy.buch@lala.com | Kaiya Burch | Uglax | Lo Rumble&lt;/li&gt;</v>
+        <v>'hassa_oi_ | kaiy.buch@lala.com | Kaiya Burch | Uglax | Lo Rumble',</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -37412,7 +37412,7 @@
       </c>
       <c r="I53" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;cahoo_st_ip | marus.ewig@lala.com | Markus Ewing | Friatho | Lo Rumble&lt;/li&gt;</v>
+        <v>'cahoo_st_ip | marus.ewig@lala.com | Markus Ewing | Friatho | Lo Rumble',</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -37439,7 +37439,7 @@
       </c>
       <c r="I54" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;festo_nl_nspresado | renda.or@lala.com | Brenda Orr | Etrana | Lo Rumble&lt;/li&gt;</v>
+        <v>'festo_nl_nspresado | renda.or@lala.com | Brenda Orr | Etrana | Lo Rumble',</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -37466,7 +37466,7 @@
       </c>
       <c r="I55" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;agiles_on_mason | isael.poers@lala.com | Misael Powers | Etrana | Lo Rumble&lt;/li&gt;</v>
+        <v>'agiles_on_mason | isael.poers@lala.com | Misael Powers | Etrana | Lo Rumble',</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -37493,7 +37493,7 @@
       </c>
       <c r="I56" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;chiss_ngr_searcher | erain.wang@lala.com | Efrain Wang | Uglax | Lo Rumble&lt;/li&gt;</v>
+        <v>'chiss_ngr_searcher | erain.wang@lala.com | Efrain Wang | Uglax | Lo Rumble',</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -37520,7 +37520,7 @@
       </c>
       <c r="I57" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;snapf_on_al | alexndria.huner@lala.com | Alexandria Hunter | Hoshor | Lo Rumble&lt;/li&gt;</v>
+        <v>'snapf_on_al | alexndria.huner@lala.com | Alexandria Hunter | Hoshor | Lo Rumble',</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -37547,7 +37547,7 @@
       </c>
       <c r="I58" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;helmc_ll_ | kaia.weeler@lala.com | Kaia Wheeler | Bepriedan | Lo Rumble&lt;/li&gt;</v>
+        <v>'helmc_ll_ | kaia.weeler@lala.com | Kaia Wheeler | Bepriedan | Lo Rumble',</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -37574,7 +37574,7 @@
       </c>
       <c r="I59" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;wors_explo_e | issc.osbone@lala.com | Issac Osborne | Uglax | Lo Rumble&lt;/li&gt;</v>
+        <v>'wors_explo_e | issc.osbone@lala.com | Issac Osborne | Uglax | Lo Rumble',</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -37601,7 +37601,7 @@
       </c>
       <c r="I60" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;zwodd_rycl_bs | iffany.joyc@lala.com | Tiffany Joyce | Friatho | Lo Rumble&lt;/li&gt;</v>
+        <v>'zwodd_rycl_bs | iffany.joyc@lala.com | Tiffany Joyce | Friatho | Lo Rumble',</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -37628,7 +37628,7 @@
       </c>
       <c r="I61" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;dalcop_ro_n | rittany.coke@lala.com | Brittany Cooke | Friatho | Lo Rumble&lt;/li&gt;</v>
+        <v>'dalcop_ro_n | rittany.coke@lala.com | Brittany Cooke | Friatho | Lo Rumble',</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -37655,7 +37655,7 @@
       </c>
       <c r="I62" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;tech_ical_hopkins | waye.duglas@lala.com | Wayne Douglas | Etrana | Lo Rumble&lt;/li&gt;</v>
+        <v>'tech_ical_hopkins | waye.duglas@lala.com | Wayne Douglas | Etrana | Lo Rumble',</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -37681,8 +37681,8 @@
         <v>216</v>
       </c>
       <c r="I63" t="str">
-        <f>_xlfn.CONCAT("&lt;li&gt;",C63," | ",D63," | ",E63," | ",F63," | ",G63,"&lt;/li&gt;")</f>
-        <v>&lt;li&gt;chell_bor_ed | gage.pone@lala.com | Gage Ponce | Etrana | Merimas Silverstring&lt;/li&gt;</v>
+        <f t="shared" si="0"/>
+        <v>'chell_bor_ed | gage.pone@lala.com | Gage Ponce | Etrana | Merimas Silverstring',</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -37709,7 +37709,7 @@
       </c>
       <c r="I64" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;sear_dwool_ich | jenn.meji@lala.com | Jenny Mejia | Hoshor | Merimas Silverstring&lt;/li&gt;</v>
+        <v>'sear_dwool_ich | jenn.meji@lala.com | Jenny Mejia | Hoshor | Merimas Silverstring',</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -37736,7 +37736,7 @@
       </c>
       <c r="I65" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;enedw_ith_enville | ael.jennngs@lala.com | Gael Jennings | Etrana | Merimas Silverstring&lt;/li&gt;</v>
+        <v>'enedw_ith_enville | ael.jennngs@lala.com | Gael Jennings | Etrana | Merimas Silverstring',</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -37762,8 +37762,8 @@
         <v>216</v>
       </c>
       <c r="I66" t="str">
-        <f t="shared" ref="I66:I101" si="1">_xlfn.CONCAT("&lt;li&gt;",C66," | ",D66," | ",E66," | ",F66," | ",G66,"&lt;/li&gt;")</f>
-        <v>&lt;li&gt;weamy_xcit_ment | danella.richrds@lala.com | Daniella Richards | Chaoburg | Merimas Silverstring&lt;/li&gt;</v>
+        <f t="shared" si="0"/>
+        <v>'weamy_xcit_ment | danella.richrds@lala.com | Daniella Richards | Chaoburg | Merimas Silverstring',</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -37789,8 +37789,8 @@
         <v>216</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;li&gt;stro_glim_ic | sydee.kne@lala.com | Sydnee Kane | Bepriedan | Merimas Silverstring&lt;/li&gt;</v>
+        <f t="shared" ref="I67:I101" si="1">_xlfn.CONCAT("'",C67," | ",D67," | ",E67," | ",F67," | ",G67,"'",",")</f>
+        <v>'stro_glim_ic | sydee.kne@lala.com | Sydnee Kane | Bepriedan | Merimas Silverstring',</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -37817,7 +37817,7 @@
       </c>
       <c r="I68" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;sowerb_r_ytick | morah.daidson@lala.com | Moriah Davidson | Bepriedan | Merimas Silverstring&lt;/li&gt;</v>
+        <v>'sowerb_r_ytick | morah.daidson@lala.com | Moriah Davidson | Bepriedan | Merimas Silverstring',</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -37844,7 +37844,7 @@
       </c>
       <c r="I69" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;macaw_ube_ | hyann.wes@lala.com | Shyann West | Friatho | Merimas Silverstring&lt;/li&gt;</v>
+        <v>'macaw_ube_ | hyann.wes@lala.com | Shyann West | Friatho | Merimas Silverstring',</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -37871,7 +37871,7 @@
       </c>
       <c r="I70" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;revea_fr_nchy | aanda.htfield@lala.com | Amanda Hatfield | Uglax | Merimas Silverstring&lt;/li&gt;</v>
+        <v>'revea_fr_nchy | aanda.htfield@lala.com | Amanda Hatfield | Uglax | Merimas Silverstring',</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -37898,7 +37898,7 @@
       </c>
       <c r="I71" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;skants_or_upt | valeie.rch@lala.com | Valerie Rich | Bepriedan | Merimas Silverstring&lt;/li&gt;</v>
+        <v>'skants_or_upt | valeie.rch@lala.com | Valerie Rich | Bepriedan | Merimas Silverstring',</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -37925,7 +37925,7 @@
       </c>
       <c r="I72" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;gann_the_am | wlliam.ross@lala.com | William Ross | Uglax | Merimas Silverstring&lt;/li&gt;</v>
+        <v>'gann_the_am | wlliam.ross@lala.com | William Ross | Uglax | Merimas Silverstring',</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -37952,7 +37952,7 @@
       </c>
       <c r="I73" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;fetchg_o_ty | seven.ndrews@lala.com | Steven Andrews | Friatho | Merimas Silverstring&lt;/li&gt;</v>
+        <v>'fetchg_o_ty | seven.ndrews@lala.com | Steven Andrews | Friatho | Merimas Silverstring',</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -37979,7 +37979,7 @@
       </c>
       <c r="I74" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;bitte_nexp_riment | skler.broks@lala.com | Skyler Brooks | Bepriedan | Merimas Silverstring&lt;/li&gt;</v>
+        <v>'bitte_nexp_riment | skler.broks@lala.com | Skyler Brooks | Bepriedan | Merimas Silverstring',</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -38006,7 +38006,7 @@
       </c>
       <c r="I75" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;umpire_pti_istic | lanen.galvn@lala.com | Landen Galvan | Hoshor | Merimas Silverstring&lt;/li&gt;</v>
+        <v>'umpire_pti_istic | lanen.galvn@lala.com | Landen Galvan | Hoshor | Merimas Silverstring',</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -38033,7 +38033,7 @@
       </c>
       <c r="I76" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;swed_shnec_ | kai.lcero@lala.com | Kali Lucero | Etrana | Merimas Silverstring&lt;/li&gt;</v>
+        <v>'swed_shnec_ | kai.lcero@lala.com | Kali Lucero | Etrana | Merimas Silverstring',</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -38060,7 +38060,7 @@
       </c>
       <c r="I77" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;batter_yem_ni | asa.ardy@lala.com | Asia Hardy | Bepriedan | Merimas Silverstring&lt;/li&gt;</v>
+        <v>'batter_yem_ni | asa.ardy@lala.com | Asia Hardy | Bepriedan | Merimas Silverstring',</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -38087,7 +38087,7 @@
       </c>
       <c r="I78" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;tramp_li_ehoury | unnar.axwell@lala.com | Gunnar Maxwell | Etrana | Pepin Silentfoot&lt;/li&gt;</v>
+        <v>'tramp_li_ehoury | unnar.axwell@lala.com | Gunnar Maxwell | Etrana | Pepin Silentfoot',</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -38114,7 +38114,7 @@
       </c>
       <c r="I79" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;norb_rtre_orm | pela.garnr@lala.com | Perla Garner | Chaoburg | Pepin Silentfoot&lt;/li&gt;</v>
+        <v>'norb_rtre_orm | pela.garnr@lala.com | Perla Garner | Chaoburg | Pepin Silentfoot',</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -38141,7 +38141,7 @@
       </c>
       <c r="I80" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;hick_eteo_ojinx | gavn.tkins@lala.com | Gavin Atkins | Hoshor | Pepin Silentfoot&lt;/li&gt;</v>
+        <v>'hick_eteo_ojinx | gavn.tkins@lala.com | Gavin Atkins | Hoshor | Pepin Silentfoot',</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -38168,7 +38168,7 @@
       </c>
       <c r="I81" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;himse_fted_ime | olly.illarreal@lala.com | Molly Villarreal | Friatho | Pepin Silentfoot&lt;/li&gt;</v>
+        <v>'himse_fted_ime | olly.illarreal@lala.com | Molly Villarreal | Friatho | Pepin Silentfoot',</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -38195,7 +38195,7 @@
       </c>
       <c r="I82" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;brie_stap_ | arilla.ane@lala.com | Ariella Kane | Uglax | Pepin Silentfoot&lt;/li&gt;</v>
+        <v>'brie_stap_ | arilla.ane@lala.com | Ariella Kane | Uglax | Pepin Silentfoot',</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -38222,7 +38222,7 @@
       </c>
       <c r="I83" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;surm_seco_e | alter.bra@lala.com | Walter Bray | Uglax | Pepin Silentfoot&lt;/li&gt;</v>
+        <v>'surm_seco_e | alter.bra@lala.com | Walter Bray | Uglax | Pepin Silentfoot',</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -38249,7 +38249,7 @@
       </c>
       <c r="I84" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;wrest_ersa_oring | kia.soo@lala.com | Kira Soto | Etrana | Pepin Silentfoot&lt;/li&gt;</v>
+        <v>'wrest_ersa_oring | kia.soo@lala.com | Kira Soto | Etrana | Pepin Silentfoot',</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -38276,7 +38276,7 @@
       </c>
       <c r="I85" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;surge_np_bster | haile.mrillo@lala.com | Hailee Murillo | Friatho | Pepin Silentfoot&lt;/li&gt;</v>
+        <v>'surge_np_bster | haile.mrillo@lala.com | Hailee Murillo | Friatho | Pepin Silentfoot',</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -38303,7 +38303,7 @@
       </c>
       <c r="I86" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;effi_ienc_buckwheat | naalee.morles@lala.com | Natalee Morales | Etrana | Pepin Silentfoot&lt;/li&gt;</v>
+        <v>'effi_ienc_buckwheat | naalee.morles@lala.com | Natalee Morales | Etrana | Pepin Silentfoot',</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -38330,7 +38330,7 @@
       </c>
       <c r="I87" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;quoti_nt_unch | lanyn.terr@lala.com | Landyn Terry | Friatho | Pepin Silentfoot&lt;/li&gt;</v>
+        <v>'quoti_nt_unch | lanyn.terr@lala.com | Landyn Terry | Friatho | Pepin Silentfoot',</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -38357,7 +38357,7 @@
       </c>
       <c r="I88" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;improv_flu_gers | alec.soto@lala.com | Alec Soto | Uglax | Pepin Silentfoot&lt;/li&gt;</v>
+        <v>'improv_flu_gers | alec.soto@lala.com | Alec Soto | Uglax | Pepin Silentfoot',</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -38384,7 +38384,7 @@
       </c>
       <c r="I89" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;curec_ity_ootransport | jaet.care@lala.com | Janet Carey | Hoshor | Pepin Silentfoot&lt;/li&gt;</v>
+        <v>'curec_ity_ootransport | jaet.care@lala.com | Janet Carey | Hoshor | Pepin Silentfoot',</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -38411,7 +38411,7 @@
       </c>
       <c r="I90" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;ease_ot_ | rodrick.moye@lala.com | Roderick Moyer | Chaoburg | Pepin Silentfoot&lt;/li&gt;</v>
+        <v>'ease_ot_ | rodrick.moye@lala.com | Roderick Moyer | Chaoburg | Pepin Silentfoot',</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -38438,7 +38438,7 @@
       </c>
       <c r="I91" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;dobby_ir_e | atena.barett@lala.com | Athena Barnett | Hoshor | Pepin Silentfoot&lt;/li&gt;</v>
+        <v>'dobby_ir_e | atena.barett@lala.com | Athena Barnett | Hoshor | Pepin Silentfoot',</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -38465,7 +38465,7 @@
       </c>
       <c r="I92" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;snicto_w_irr | on.err@lala.com | Jon Kerr | Friatho | Pepin Silentfoot&lt;/li&gt;</v>
+        <v>'snicto_w_irr | on.err@lala.com | Jon Kerr | Friatho | Pepin Silentfoot',</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -38492,7 +38492,7 @@
       </c>
       <c r="I93" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;cornea_ei_ht | kmeron.oyd@lala.com | Kameron Boyd | Bepriedan | Pepin Silentfoot&lt;/li&gt;</v>
+        <v>'cornea_ei_ht | kmeron.oyd@lala.com | Kameron Boyd | Bepriedan | Pepin Silentfoot',</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -38519,7 +38519,7 @@
       </c>
       <c r="I94" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;cycl_fifth_ | arolyn.veazquez@lala.com | Carolyn Velazquez | Friatho | Pepin Silentfoot&lt;/li&gt;</v>
+        <v>'cycl_fifth_ | arolyn.veazquez@lala.com | Carolyn Velazquez | Friatho | Pepin Silentfoot',</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -38546,7 +38546,7 @@
       </c>
       <c r="I95" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;prac_ica_damaging | gabrelle.mcnil@lala.com | Gabrielle Mcneil | Bepriedan | Pepin Silentfoot&lt;/li&gt;</v>
+        <v>'prac_ica_damaging | gabrelle.mcnil@lala.com | Gabrielle Mcneil | Bepriedan | Pepin Silentfoot',</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -38573,7 +38573,7 @@
       </c>
       <c r="I96" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;scor_hedm_d | ryle.hoden@lala.com | Rylee Holden | Bepriedan | Pepin Silentfoot&lt;/li&gt;</v>
+        <v>'scor_hedm_d | ryle.hoden@lala.com | Rylee Holden | Bepriedan | Pepin Silentfoot',</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -38600,7 +38600,7 @@
       </c>
       <c r="I97" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;abrup_ago_izing | dam.soomon@lala.com | Adam Solomon | Hoshor | Pepin Silentfoot&lt;/li&gt;</v>
+        <v>'abrup_ago_izing | dam.soomon@lala.com | Adam Solomon | Hoshor | Pepin Silentfoot',</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -38627,7 +38627,7 @@
       </c>
       <c r="I98" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;pand_qua_ified | maria.krueer@lala.com | Marina Krueger | Hoshor | Pepin Silentfoot&lt;/li&gt;</v>
+        <v>'pand_qua_ified | maria.krueer@lala.com | Marina Krueger | Hoshor | Pepin Silentfoot',</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -38654,7 +38654,7 @@
       </c>
       <c r="I99" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;invest_e_tsleauty | jamai.hawins@lala.com | Jamari Hawkins | Friatho | Pepin Silentfoot&lt;/li&gt;</v>
+        <v>'invest_e_tsleauty | jamai.hawins@lala.com | Jamari Hawkins | Friatho | Pepin Silentfoot',</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -38681,7 +38681,7 @@
       </c>
       <c r="I100" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;mimsy_to_ly | odney.keler@lala.com | Rodney Keller | Bepriedan | Pepin Silentfoot&lt;/li&gt;</v>
+        <v>'mimsy_to_ly | odney.keler@lala.com | Rodney Keller | Bepriedan | Pepin Silentfoot',</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -38708,7 +38708,7 @@
       </c>
       <c r="I101" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;peps_opt_mal | raon.illiamson@lala.com | Ramon Williamson | Friatho | Pepin Silentfoot&lt;/li&gt;</v>
+        <v>'peps_opt_mal | raon.illiamson@lala.com | Ramon Williamson | Friatho | Pepin Silentfoot',</v>
       </c>
     </row>
   </sheetData>
